--- a/data/results/result4.xlsx
+++ b/data/results/result4.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.000919]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[14.98473]</t>
+    <t>巴西粗粉=[9.068826]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[15.0]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.42128]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.49262]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[38.90008]</t>
+    <t>过筛镍矿=[11.43646]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[8.294332]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[40.0]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8.000919</v>
+        <v>9.068826</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>14.98473</v>
+        <v>15</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.42128</v>
+        <v>11.43646</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.49262</v>
+        <v>8.294332000000001</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>38.90008</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.4521648754829</v>
+        <v>444.2624698490393</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.2794583351473</v>
+        <v>491.7060390907002</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.96504026585534</v>
+        <v>55.9910450600602</v>
       </c>
       <c r="D14">
-        <v>5.238568529029298</v>
+        <v>5.388872965434692</v>
       </c>
       <c r="E14">
-        <v>2.718677431531421</v>
+        <v>2.716106075775075</v>
       </c>
       <c r="F14">
-        <v>0.738369130474149</v>
+        <v>0.7381126736548759</v>
       </c>
       <c r="G14">
-        <v>2.998961616563437</v>
+        <v>2.886077537883701</v>
       </c>
       <c r="H14">
-        <v>0.04886703240675808</v>
+        <v>0.04882025634506863</v>
       </c>
       <c r="I14">
-        <v>0.06680581745587068</v>
+        <v>0.06602810776608563</v>
       </c>
       <c r="J14">
-        <v>0.1799350972995382</v>
+        <v>0.1799999417483601</v>
       </c>
       <c r="M14" s="1">
-        <v>529.8593909318286</v>
+        <v>529.8629882603908</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>

--- a/data/results/result4.xlsx
+++ b/data/results/result4.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[9.068826]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[15.0]</t>
+    <t>巴西粗粉=[10.84475]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[14.99928]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.43646]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[8.294332]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[40.0]</t>
+    <t>过筛镍矿=[8.035158]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[13.43097]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[36.48947]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>9.068826</v>
+        <v>10.84475</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>15</v>
+        <v>14.99928</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.43646</v>
+        <v>8.035157999999999</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>8.294332000000001</v>
+        <v>13.43097</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>40</v>
+        <v>36.48947</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>444.2624698490393</v>
+        <v>451.3229644501441</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.7060390907002</v>
+        <v>495.8187905469753</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.9910450600602</v>
+        <v>56.2627809965889</v>
       </c>
       <c r="D14">
-        <v>5.388872965434692</v>
+        <v>5.335854142792585</v>
       </c>
       <c r="E14">
-        <v>2.716106075775075</v>
+        <v>2.694771682359076</v>
       </c>
       <c r="F14">
-        <v>0.7381126736548759</v>
+        <v>0.7096178527047881</v>
       </c>
       <c r="G14">
-        <v>2.886077537883701</v>
+        <v>2.999672131705411</v>
       </c>
       <c r="H14">
-        <v>0.04882025634506863</v>
+        <v>0.04845846906339418</v>
       </c>
       <c r="I14">
-        <v>0.06602810776608563</v>
+        <v>0.06802326786551018</v>
       </c>
       <c r="J14">
-        <v>0.1799999417483601</v>
+        <v>0.125938370013467</v>
       </c>
       <c r="M14" s="1">
-        <v>529.8629882603908</v>
+        <v>533.1636195063168</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>
